--- a/Current Solution/formatted_diffs.xlsx
+++ b/Current Solution/formatted_diffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4073d49f580b59d/OneDocs/GitHub/PrincessGrouchy/pokecenter-trawler/Current Solution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{297F50E0-738C-4126-8014-7DEA869E6CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D4F4D0-46C3-4AC4-8748-A703D802D33C}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{297F50E0-738C-4126-8014-7DEA869E6CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCF1355-417D-40A6-9B09-D9DF121F7520}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="18264" activeTab="3" xr2:uid="{9F75F101-9ABB-44FD-80B1-3D685BCC5D0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="18264" xr2:uid="{9F75F101-9ABB-44FD-80B1-3D685BCC5D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="en-ca" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="1465">
   <si>
     <t>YES</t>
   </si>
@@ -4655,14 +4655,19 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
       <font>
@@ -4765,14 +4770,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
     <dxf>
       <font>
@@ -4815,6 +4813,12 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4835,28 +4839,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4882,9 +4882,9 @@
     <tableColumn id="2" xr3:uid="{F3177E18-A635-43EF-A6D7-EA0C2EBE8AF4}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{101F6522-6752-443A-B6AC-34E40B7150DA}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{2660F8C0-3EE9-4D5E-BF7A-9D39F949A391}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{816C1A09-FD4E-4450-B08D-A2EFEA96CBEF}" name="Column5" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{816C1A09-FD4E-4450-B08D-A2EFEA96CBEF}" name="Column5" dataDxfId="21"/>
     <tableColumn id="6" xr3:uid="{96AAA025-9716-4227-A8FE-4E2E1F4A0DF4}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{4E90ACD4-4613-4067-855A-DD961BA99122}" name="Column7" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{4E90ACD4-4613-4067-855A-DD961BA99122}" name="Column7" dataDxfId="20"/>
     <tableColumn id="8" xr3:uid="{8BBEC7AF-3CA0-4150-A748-28F75FD96904}" name="Column8"/>
     <tableColumn id="9" xr3:uid="{70411E1C-9AB2-472A-A168-ADABF0BC8DA1}" name="Column9"/>
   </tableColumns>
@@ -4905,7 +4905,7 @@
     <tableColumn id="4" xr3:uid="{78317C49-4A9D-4C7A-8F18-69B620A5D7DE}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{1F43FA2A-4BE1-434C-9898-73715D090C14}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{FD591CF4-B194-4BBD-AA68-E6CC5C7AFF74}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{4E1BBCCC-A0F4-4FF5-8807-2D87C75593EB}" name="Column7" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{4E1BBCCC-A0F4-4FF5-8807-2D87C75593EB}" name="Column7" dataDxfId="15"/>
     <tableColumn id="8" xr3:uid="{8CD11B04-49F8-4E51-84C5-17848905EBDA}" name="Column8"/>
     <tableColumn id="9" xr3:uid="{629D90AB-8B60-495E-BC18-0CFDA9B04223}" name="Column9"/>
   </tableColumns>
@@ -4923,10 +4923,10 @@
     <tableColumn id="1" xr3:uid="{871CD59F-D1F4-4D8C-8897-EE3096BA367D}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{B970AC33-915D-46ED-A908-2220BA27C09F}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{6F1A002C-F591-4007-839E-16B9B98AD40C}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{BBCDB843-CEE5-4F97-8F4D-89AA76018CD2}" name="Column4" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{E4AAB0BF-7622-4539-95D1-88B548EDF770}" name="Column5" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{96AD967E-E286-4553-BEDB-A0C886D67EED}" name="Column6" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{AFF68761-EB42-46B3-B800-1F993D39E108}" name="Column7" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{BBCDB843-CEE5-4F97-8F4D-89AA76018CD2}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E4AAB0BF-7622-4539-95D1-88B548EDF770}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{96AD967E-E286-4553-BEDB-A0C886D67EED}" name="Column6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AFF68761-EB42-46B3-B800-1F993D39E108}" name="Column7" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{4F15AA00-AFFC-421B-B1F6-CF448412140B}" name="Column8"/>
     <tableColumn id="9" xr3:uid="{E1381F69-19E7-44EF-B4C4-A873FC6BCCF7}" name="Column9"/>
   </tableColumns>
@@ -4947,7 +4947,7 @@
     <tableColumn id="4" xr3:uid="{7B8C71AD-0FCF-4B74-ADE7-2BB4F26F1A8A}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{F8E46617-CEE9-4A80-9B56-D51E303809D4}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{572524C0-458B-4F03-9C86-CCD937435990}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{7C98E732-C50B-41F9-9377-25CA2C9B857B}" name="Column7" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{7C98E732-C50B-41F9-9377-25CA2C9B857B}" name="Column7" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{6745690D-9E30-47CC-8344-95D2B19C8E18}" name="Column8"/>
     <tableColumn id="9" xr3:uid="{2E51D5A0-861E-45CA-A1AE-F070D8D94097}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{254BB69D-7D5D-406F-9136-B08C2149C35A}" name="Column10"/>
@@ -5255,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED828F06-70FE-467E-B9D7-BFDBD9E3855F}">
   <dimension ref="A1:P385"/>
   <sheetViews>
-    <sheetView topLeftCell="B65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6545,7 +6545,7 @@
       <c r="A41">
         <v>297</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="16" t="s">
         <v>637</v>
       </c>
       <c r="C41" t="s">
@@ -9623,20 +9623,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{D7DEEEC3-F1E3-41D0-A4AC-9A615409CC61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9645,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D7650D-1EE0-4757-9825-9CBC152B5B2D}">
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94:N95"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13826,16 +13829,16 @@
     <sortCondition ref="N2:N53"/>
   </sortState>
   <conditionalFormatting sqref="C4:C1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13848,8 +13851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C315A-A0A6-46E6-92E3-3C5EA7E43327}">
   <dimension ref="B1:S459"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R130" sqref="C1:R130"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y134" sqref="A1:Y134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18055,6 +18058,12 @@
       <c r="J137" t="s">
         <v>868</v>
       </c>
+      <c r="O137" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="P137" s="9" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138">
@@ -18082,6 +18091,12 @@
         <v>7</v>
       </c>
       <c r="J138" t="s">
+        <v>868</v>
+      </c>
+      <c r="O138" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="P138" s="7" t="s">
         <v>868</v>
       </c>
     </row>
@@ -19491,34 +19506,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O26">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:O47">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N95">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O79">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O80">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19531,8 +19546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C51FD2-E871-4218-A486-07718615F5D8}">
   <dimension ref="A1:O410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J155" sqref="J155:J226"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
